--- a/xlsx/经济政策_intext.xlsx
+++ b/xlsx/经济政策_intext.xlsx
@@ -71,25 +71,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>宏觀經濟</t>
+    <t>宏观经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9</t>
   </si>
   <si>
-    <t>通貨膨脹</t>
+    <t>通货膨胀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E7%A8%85</t>
   </si>
   <si>
-    <t>關稅</t>
+    <t>关税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E4%BE%8B</t>
   </si>
   <si>
-    <t>規例</t>
+    <t>规例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%89%98%E6%8B%89%E6%96%AF</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>世界銀行</t>
+    <t>世界银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>國際貨幣基金</t>
+    <t>国际货币基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/A%E2%80%93J%E6%95%88%E6%9E%9C</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://ar.wikipedia.org/wiki/%D8%B3%D9%8A%D8%A7%D8%B3%D8%A9_%D8%A7%D9%82%D8%AA%D8%B5%D8%A7%D8%AF%D9%8A%D8%A9</t>
